--- a/results/R_gene_lists/d2_FRC_subtype_ova_markers.xlsx
+++ b/results/R_gene_lists/d2_FRC_subtype_ova_markers.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="pos-CD34+SC" r:id="rId3" sheetId="1"/>
+    <sheet name="high-CD34+SC" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -68,7 +68,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>pos-CD34+SC</t>
+    <t>high-CD34+SC</t>
   </si>
   <si>
     <t>H2-Q6</t>
